--- a/host/進推處教務組06月承辦紀錄.xlsx
+++ b/host/進推處教務組06月承辦紀錄.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>時間</t>
   </si>
@@ -111,6 +111,111 @@
   </si>
   <si>
     <t>2020/06/21 16:13</t>
+  </si>
+  <si>
+    <t>2020/06/21 17:03</t>
+  </si>
+  <si>
+    <t>中文(歷年/單學期)成績單列印</t>
+  </si>
+  <si>
+    <t>2020/06/21 17:06</t>
+  </si>
+  <si>
+    <t>2020/06/21 17:08</t>
+  </si>
+  <si>
+    <t>2020/06/21 17:10</t>
+  </si>
+  <si>
+    <t>2020/06/21 17:12</t>
+  </si>
+  <si>
+    <t>2020/06/21 17:14</t>
+  </si>
+  <si>
+    <t>2020/06/21 17:15</t>
+  </si>
+  <si>
+    <t>2020/06/21 17:18</t>
+  </si>
+  <si>
+    <t>2020/06/21 17:20</t>
+  </si>
+  <si>
+    <t>2020/06/21 17:23</t>
+  </si>
+  <si>
+    <t>2020/06/21 17:24</t>
+  </si>
+  <si>
+    <t>2020/06/21 17:25</t>
+  </si>
+  <si>
+    <t>2020/06/21 17:26</t>
+  </si>
+  <si>
+    <t>2020/06/21 17:27</t>
+  </si>
+  <si>
+    <t>2020/06/21 17:46</t>
+  </si>
+  <si>
+    <t>2020/06/21 17:51</t>
+  </si>
+  <si>
+    <t>企管系</t>
+  </si>
+  <si>
+    <t>2020/06/21 17:52</t>
+  </si>
+  <si>
+    <t>2020/06/21 17:53</t>
+  </si>
+  <si>
+    <t>2020/06/21 17:54</t>
+  </si>
+  <si>
+    <t>2020/06/21 17:55</t>
+  </si>
+  <si>
+    <t>2020/06/21 17:58</t>
+  </si>
+  <si>
+    <t>2020/06/21 17:59</t>
+  </si>
+  <si>
+    <t>2020/06/21 18:02</t>
+  </si>
+  <si>
+    <t>2020/06/21 18:03</t>
+  </si>
+  <si>
+    <t>2020/06/21 18:10</t>
+  </si>
+  <si>
+    <t>2020/06/21 18:12</t>
+  </si>
+  <si>
+    <t>2020/06/21 20:01</t>
+  </si>
+  <si>
+    <t>2020/06/21 20:02</t>
+  </si>
+  <si>
+    <t>2020/06/21 20:03</t>
+  </si>
+  <si>
+    <t>2020/06/21 20:17</t>
+  </si>
+  <si>
+    <t>2020/06/21 20:18</t>
+  </si>
+  <si>
+    <t>2020/06/21 20:21</t>
+  </si>
+  <si>
+    <t>金資系</t>
   </si>
 </sst>
 </file>
@@ -446,7 +551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,12 +730,702 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s"/>
-      <c r="D11" t="s"/>
       <c r="E11" t="s">
         <v>29</v>
       </c>
-      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s"/>
+      <c r="D59" t="s"/>
+      <c r="E59" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
